--- a/tests/data/output/一级测试用例-18001_result.xlsx
+++ b/tests/data/output/一级测试用例-18001_result.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"name":"公峰","id_card_no":"510525194809160520"}</t>
+          <t>{"name":"长帆","id_card_no":"210811196812133984"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"name":"章莹","id_card_no":"421100198211225332"}</t>
+          <t>{"name":"全玉英","id_card_no":"21100220010302497X"}</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"name":"后桂英","id_card_no":"310108197002017828"}</t>
+          <t>{"name":"轩健","id_card_no":"210603199608312996"}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"name":"蒯建平","id_card_no":"440307198711085397"}</t>
+          <t>{"name":"殷桂芳","id_card_no":"120102198812206277"}</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"name":"诸文","id_card_no":"53060019590906089X"}</t>
+          <t>{"name":"郗玉华","id_card_no":"210401196603016250"}</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"name":"钱燕","id_card_no":"440513199304139426"}</t>
+          <t>{"name":"琴志强","id_card_no":"410505194206018139"}</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"name":"江冬梅","id_card_no":"411002197004135570"}</t>
+          <t>{"name":"巫秀珍","id_card_no":"231121194006018754"}</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"name":"澹雪梅","id_card_no":"540233198605028146"}</t>
+          <t>{"name":"仲丽","id_card_no":"141126194210298124"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-18001_result.xlsx
+++ b/tests/data/output/一级测试用例-18001_result.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"name":"长帆","id_card_no":"210811196812133984"}</t>
+          <t>{"name":"师兵","id_card_no":"411521198004156196"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"name":"全玉英","id_card_no":"21100220010302497X"}</t>
+          <t>{"name":"涂丹丹","id_card_no":"511700197011076889"}</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"name":"轩健","id_card_no":"210603199608312996"}</t>
+          <t>{"name":"裘建华","id_card_no":"350521199511153691"}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"name":"殷桂芳","id_card_no":"120102198812206277"}</t>
+          <t>{"name":"后丽娟","id_card_no":"331100196206210717"}</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"name":"郗玉华","id_card_no":"210401196603016250"}</t>
+          <t>{"name":"南雷","id_card_no":"410301198710135926"}</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"name":"琴志强","id_card_no":"410505194206018139"}</t>
+          <t>{"name":"牟彬","id_card_no":"131125193201157562"}</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"name":"巫秀珍","id_card_no":"231121194006018754"}</t>
+          <t>{"name":"盛冬梅","id_card_no":"510722194008162827"}</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"name":"仲丽","id_card_no":"141126194210298124"}</t>
+          <t>{"name":"哈柳","id_card_no":"620981196511222888"}</t>
         </is>
       </c>
     </row>
